--- a/natmiOut/YoungD2/LR-pairs_lrc2p/C3-C5ar2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/C3-C5ar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H2">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I2">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J2">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>7.10488351632576</v>
+        <v>0.002486</v>
       </c>
       <c r="N2">
-        <v>7.10488351632576</v>
+        <v>0.007458</v>
       </c>
       <c r="O2">
-        <v>0.09163360298574769</v>
+        <v>3.00751452789208E-05</v>
       </c>
       <c r="P2">
-        <v>0.09163360298574769</v>
+        <v>3.00751452789208E-05</v>
       </c>
       <c r="Q2">
-        <v>1.394578896538927</v>
+        <v>0.001563795097333333</v>
       </c>
       <c r="R2">
-        <v>1.394578896538927</v>
+        <v>0.014074155876</v>
       </c>
       <c r="S2">
-        <v>7.539507884661821E-05</v>
+        <v>7.271618130797799E-08</v>
       </c>
       <c r="T2">
-        <v>7.539507884661821E-05</v>
+        <v>7.271618130797799E-08</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H3">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I3">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J3">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>8.194998358068871</v>
+        <v>0.01171</v>
       </c>
       <c r="N3">
-        <v>8.194998358068871</v>
+        <v>0.03513</v>
       </c>
       <c r="O3">
-        <v>0.1056931087310041</v>
+        <v>0.0001416653062011917</v>
       </c>
       <c r="P3">
-        <v>0.1056931087310041</v>
+        <v>0.0001416653062011917</v>
       </c>
       <c r="Q3">
-        <v>1.608551602721308</v>
+        <v>0.007366066206666667</v>
       </c>
       <c r="R3">
-        <v>1.608551602721308</v>
+        <v>0.06629459586</v>
       </c>
       <c r="S3">
-        <v>8.69630791180138E-05</v>
+        <v>3.425207092181908E-07</v>
       </c>
       <c r="T3">
-        <v>8.69630791180138E-05</v>
+        <v>3.425207092181908E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H4">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I4">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J4">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.2359050511814</v>
+        <v>9.107756666666667</v>
       </c>
       <c r="N4">
-        <v>62.2359050511814</v>
+        <v>27.32327</v>
       </c>
       <c r="O4">
-        <v>0.8026732882832482</v>
+        <v>0.1101838716472484</v>
       </c>
       <c r="P4">
-        <v>0.8026732882832482</v>
+        <v>0.1101838716472484</v>
       </c>
       <c r="Q4">
-        <v>12.21594690355491</v>
+        <v>5.729149325437779</v>
       </c>
       <c r="R4">
-        <v>12.21594690355491</v>
+        <v>51.56234392894</v>
       </c>
       <c r="S4">
-        <v>0.0006604303867392672</v>
+        <v>0.0002664043785528072</v>
       </c>
       <c r="T4">
-        <v>0.0006604303867392672</v>
+        <v>0.0002664043785528072</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>80.0008696479444</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H5">
-        <v>80.0008696479444</v>
+        <v>1.887122</v>
       </c>
       <c r="I5">
-        <v>0.3353488472099174</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J5">
-        <v>0.3353488472099174</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.10488351632576</v>
+        <v>8.275423333333334</v>
       </c>
       <c r="N5">
-        <v>7.10488351632576</v>
+        <v>24.82627</v>
       </c>
       <c r="O5">
-        <v>0.09163360298574769</v>
+        <v>0.1001144645995861</v>
       </c>
       <c r="P5">
-        <v>0.09163360298574769</v>
+        <v>0.1001144645995861</v>
       </c>
       <c r="Q5">
-        <v>568.3968600534059</v>
+        <v>5.205577810548889</v>
       </c>
       <c r="R5">
-        <v>568.3968600534059</v>
+        <v>46.85020029494</v>
       </c>
       <c r="S5">
-        <v>0.03072922312696173</v>
+        <v>0.0002420584004452688</v>
       </c>
       <c r="T5">
-        <v>0.03072922312696173</v>
+        <v>0.0002420584004452688</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>80.0008696479444</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H6">
-        <v>80.0008696479444</v>
+        <v>1.887122</v>
       </c>
       <c r="I6">
-        <v>0.3353488472099174</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J6">
-        <v>0.3353488472099174</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.194998358068871</v>
+        <v>65.26224133333334</v>
       </c>
       <c r="N6">
-        <v>8.194998358068871</v>
+        <v>195.786724</v>
       </c>
       <c r="O6">
-        <v>0.1056931087310041</v>
+        <v>0.7895299233016855</v>
       </c>
       <c r="P6">
-        <v>0.1056931087310041</v>
+        <v>0.7895299233016855</v>
       </c>
       <c r="Q6">
-        <v>655.6069954089861</v>
+        <v>41.05260379648089</v>
       </c>
       <c r="R6">
-        <v>655.6069954089861</v>
+        <v>369.473434168328</v>
       </c>
       <c r="S6">
-        <v>0.03544406217097466</v>
+        <v>0.001908938444633822</v>
       </c>
       <c r="T6">
-        <v>0.03544406217097466</v>
+        <v>0.001908938444633822</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>80.0008696479444</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H7">
-        <v>80.0008696479444</v>
+        <v>248.636413</v>
       </c>
       <c r="I7">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J7">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>62.2359050511814</v>
+        <v>0.002486</v>
       </c>
       <c r="N7">
-        <v>62.2359050511814</v>
+        <v>0.007458</v>
       </c>
       <c r="O7">
-        <v>0.8026732882832482</v>
+        <v>3.00751452789208E-05</v>
       </c>
       <c r="P7">
-        <v>0.8026732882832482</v>
+        <v>3.00751452789208E-05</v>
       </c>
       <c r="Q7">
-        <v>4978.926527421408</v>
+        <v>0.2060367075726667</v>
       </c>
       <c r="R7">
-        <v>4978.926527421408</v>
+        <v>1.854330368154</v>
       </c>
       <c r="S7">
-        <v>0.269175561911981</v>
+        <v>9.580668598783383E-06</v>
       </c>
       <c r="T7">
-        <v>0.269175561911981</v>
+        <v>9.580668598783385E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,122 +906,122 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>27.7058855844917</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H8">
-        <v>27.7058855844917</v>
+        <v>248.636413</v>
       </c>
       <c r="I8">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J8">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>7.10488351632576</v>
+        <v>0.01171</v>
       </c>
       <c r="N8">
-        <v>7.10488351632576</v>
+        <v>0.03513</v>
       </c>
       <c r="O8">
-        <v>0.09163360298574769</v>
+        <v>0.0001416653062011917</v>
       </c>
       <c r="P8">
-        <v>0.09163360298574769</v>
+        <v>0.0001416653062011917</v>
       </c>
       <c r="Q8">
-        <v>196.8470897944626</v>
+        <v>0.9705107987433333</v>
       </c>
       <c r="R8">
-        <v>196.8470897944626</v>
+        <v>8.734597188690001</v>
       </c>
       <c r="S8">
-        <v>0.01064213856427489</v>
+        <v>4.512857171832398E-05</v>
       </c>
       <c r="T8">
-        <v>0.01064213856427489</v>
+        <v>4.512857171832399E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>27.7058855844917</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H9">
-        <v>27.7058855844917</v>
+        <v>248.636413</v>
       </c>
       <c r="I9">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J9">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.194998358068871</v>
+        <v>9.107756666666667</v>
       </c>
       <c r="N9">
-        <v>8.194998358068871</v>
+        <v>27.32327</v>
       </c>
       <c r="O9">
-        <v>0.1056931087310041</v>
+        <v>0.1101838716472484</v>
       </c>
       <c r="P9">
-        <v>0.1056931087310041</v>
+        <v>0.1101838716472484</v>
       </c>
       <c r="Q9">
-        <v>227.0496868737535</v>
+        <v>754.8399826922789</v>
       </c>
       <c r="R9">
-        <v>227.0496868737535</v>
+        <v>6793.55984423051</v>
       </c>
       <c r="S9">
-        <v>0.01227498070308623</v>
+        <v>0.03509991886632879</v>
       </c>
       <c r="T9">
-        <v>0.01227498070308623</v>
+        <v>0.03509991886632879</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.7058855844917</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H10">
-        <v>27.7058855844917</v>
+        <v>248.636413</v>
       </c>
       <c r="I10">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J10">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>62.2359050511814</v>
+        <v>8.275423333333334</v>
       </c>
       <c r="N10">
-        <v>62.2359050511814</v>
+        <v>24.82627</v>
       </c>
       <c r="O10">
-        <v>0.8026732882832482</v>
+        <v>0.1001144645995861</v>
       </c>
       <c r="P10">
-        <v>0.8026732882832482</v>
+        <v>0.1001144645995861</v>
       </c>
       <c r="Q10">
-        <v>1724.300864595321</v>
+        <v>685.8571912188345</v>
       </c>
       <c r="R10">
-        <v>1724.300864595321</v>
+        <v>6172.71472096951</v>
       </c>
       <c r="S10">
-        <v>0.093220828139663</v>
+        <v>0.0318922318870901</v>
       </c>
       <c r="T10">
-        <v>0.093220828139663</v>
+        <v>0.0318922318870901</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.1060586039336</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H11">
-        <v>30.1060586039336</v>
+        <v>248.636413</v>
       </c>
       <c r="I11">
-        <v>0.1261990287267179</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J11">
-        <v>0.1261990287267179</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.10488351632576</v>
+        <v>65.26224133333334</v>
       </c>
       <c r="N11">
-        <v>7.10488351632576</v>
+        <v>195.786724</v>
       </c>
       <c r="O11">
-        <v>0.09163360298574769</v>
+        <v>0.7895299233016855</v>
       </c>
       <c r="P11">
-        <v>0.09163360298574769</v>
+        <v>0.7895299233016855</v>
       </c>
       <c r="Q11">
-        <v>213.9000395166252</v>
+        <v>5408.856529820113</v>
       </c>
       <c r="R11">
-        <v>213.9000395166252</v>
+        <v>48679.70876838101</v>
       </c>
       <c r="S11">
-        <v>0.01156407169553103</v>
+        <v>0.2515108231007602</v>
       </c>
       <c r="T11">
-        <v>0.01156407169553103</v>
+        <v>0.2515108231007602</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.1060586039336</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H12">
-        <v>30.1060586039336</v>
+        <v>123.061588</v>
       </c>
       <c r="I12">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J12">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>8.194998358068871</v>
+        <v>0.002486</v>
       </c>
       <c r="N12">
-        <v>8.194998358068871</v>
+        <v>0.007458</v>
       </c>
       <c r="O12">
-        <v>0.1056931087310041</v>
+        <v>3.00751452789208E-05</v>
       </c>
       <c r="P12">
-        <v>0.1056931087310041</v>
+        <v>3.00751452789208E-05</v>
       </c>
       <c r="Q12">
-        <v>246.719100827161</v>
+        <v>0.1019770359226667</v>
       </c>
       <c r="R12">
-        <v>246.719100827161</v>
+        <v>0.917793323304</v>
       </c>
       <c r="S12">
-        <v>0.0133383676649601</v>
+        <v>4.741913212317851E-06</v>
       </c>
       <c r="T12">
-        <v>0.0133383676649601</v>
+        <v>4.741913212317852E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.1060586039336</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H13">
-        <v>30.1060586039336</v>
+        <v>123.061588</v>
       </c>
       <c r="I13">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J13">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>62.2359050511814</v>
+        <v>0.01171</v>
       </c>
       <c r="N13">
-        <v>62.2359050511814</v>
+        <v>0.03513</v>
       </c>
       <c r="O13">
-        <v>0.8026732882832482</v>
+        <v>0.0001416653062011917</v>
       </c>
       <c r="P13">
-        <v>0.8026732882832482</v>
+        <v>0.0001416653062011917</v>
       </c>
       <c r="Q13">
-        <v>1873.677804739714</v>
+        <v>0.4803503984933334</v>
       </c>
       <c r="R13">
-        <v>1873.677804739714</v>
+        <v>4.32315358644</v>
       </c>
       <c r="S13">
-        <v>0.1012965893662267</v>
+        <v>2.233620423018586E-05</v>
       </c>
       <c r="T13">
-        <v>0.1012965893662267</v>
+        <v>2.233620423018586E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>100.160602978402</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H14">
-        <v>100.160602978402</v>
+        <v>123.061588</v>
       </c>
       <c r="I14">
-        <v>0.4198547202357866</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J14">
-        <v>0.4198547202357866</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.10488351632576</v>
+        <v>9.107756666666667</v>
       </c>
       <c r="N14">
-        <v>7.10488351632576</v>
+        <v>27.32327</v>
       </c>
       <c r="O14">
-        <v>0.09163360298574769</v>
+        <v>0.1101838716472484</v>
       </c>
       <c r="P14">
-        <v>0.09163360298574769</v>
+        <v>0.1101838716472484</v>
       </c>
       <c r="Q14">
-        <v>711.6294170864971</v>
+        <v>373.6049995058623</v>
       </c>
       <c r="R14">
-        <v>711.6294170864971</v>
+        <v>3362.44499555276</v>
       </c>
       <c r="S14">
-        <v>0.03847280074577823</v>
+        <v>0.01737256302181926</v>
       </c>
       <c r="T14">
-        <v>0.03847280074577823</v>
+        <v>0.01737256302181926</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>100.160602978402</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H15">
-        <v>100.160602978402</v>
+        <v>123.061588</v>
       </c>
       <c r="I15">
-        <v>0.4198547202357866</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J15">
-        <v>0.4198547202357866</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.194998358068871</v>
+        <v>8.275423333333334</v>
       </c>
       <c r="N15">
-        <v>8.194998358068871</v>
+        <v>24.82627</v>
       </c>
       <c r="O15">
-        <v>0.1056931087310041</v>
+        <v>0.1001144645995861</v>
       </c>
       <c r="P15">
-        <v>0.1056931087310041</v>
+        <v>0.1001144645995861</v>
       </c>
       <c r="Q15">
-        <v>820.8159769511924</v>
+        <v>339.4622455907512</v>
       </c>
       <c r="R15">
-        <v>820.8159769511924</v>
+        <v>3055.16021031676</v>
       </c>
       <c r="S15">
-        <v>0.04437575059710628</v>
+        <v>0.01578493131209042</v>
       </c>
       <c r="T15">
-        <v>0.04437575059710628</v>
+        <v>0.01578493131209041</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1405,57 +1405,57 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>100.160602978402</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H16">
-        <v>100.160602978402</v>
+        <v>123.061588</v>
       </c>
       <c r="I16">
-        <v>0.4198547202357866</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J16">
-        <v>0.4198547202357866</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>62.2359050511814</v>
+        <v>65.26224133333334</v>
       </c>
       <c r="N16">
-        <v>62.2359050511814</v>
+        <v>195.786724</v>
       </c>
       <c r="O16">
-        <v>0.8026732882832482</v>
+        <v>0.7895299233016855</v>
       </c>
       <c r="P16">
-        <v>0.8026732882832482</v>
+        <v>0.7895299233016855</v>
       </c>
       <c r="Q16">
-        <v>6233.585776832903</v>
+        <v>2677.091684973079</v>
       </c>
       <c r="R16">
-        <v>6233.585776832903</v>
+        <v>24093.82516475771</v>
       </c>
       <c r="S16">
-        <v>0.3370061688929021</v>
+        <v>0.1244842656653297</v>
       </c>
       <c r="T16">
-        <v>0.3370061688929021</v>
+        <v>0.1244842656653297</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.390443725935655</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H17">
-        <v>0.390443725935655</v>
+        <v>90.484706</v>
       </c>
       <c r="I17">
-        <v>0.001636667875850162</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J17">
-        <v>0.001636667875850162</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>7.10488351632576</v>
+        <v>0.002486</v>
       </c>
       <c r="N17">
-        <v>7.10488351632576</v>
+        <v>0.007458</v>
       </c>
       <c r="O17">
-        <v>0.09163360298574769</v>
+        <v>3.00751452789208E-05</v>
       </c>
       <c r="P17">
-        <v>0.09163360298574769</v>
+        <v>3.00751452789208E-05</v>
       </c>
       <c r="Q17">
-        <v>2.774057192453048</v>
+        <v>0.07498165970533334</v>
       </c>
       <c r="R17">
-        <v>2.774057192453048</v>
+        <v>0.674834937348</v>
       </c>
       <c r="S17">
-        <v>0.0001499737743551807</v>
+        <v>3.486633236799255E-06</v>
       </c>
       <c r="T17">
-        <v>0.0001499737743551807</v>
+        <v>3.486633236799255E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,861 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.390443725935655</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H18">
-        <v>0.390443725935655</v>
+        <v>90.484706</v>
       </c>
       <c r="I18">
-        <v>0.001636667875850162</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J18">
-        <v>0.001636667875850162</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>8.194998358068871</v>
+        <v>0.01171</v>
       </c>
       <c r="N18">
-        <v>8.194998358068871</v>
+        <v>0.03513</v>
       </c>
       <c r="O18">
-        <v>0.1056931087310041</v>
+        <v>0.0001416653062011917</v>
       </c>
       <c r="P18">
-        <v>0.1056931087310041</v>
+        <v>0.0001416653062011917</v>
       </c>
       <c r="Q18">
-        <v>3.199685692960985</v>
+        <v>0.3531919690866667</v>
       </c>
       <c r="R18">
-        <v>3.199685692960985</v>
+        <v>3.17872772178</v>
       </c>
       <c r="S18">
-        <v>0.0001729845157587726</v>
+        <v>1.642336090222014E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001729845157587726</v>
+        <v>1.642336090222015E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>30.16156866666667</v>
+      </c>
+      <c r="H19">
+        <v>90.484706</v>
+      </c>
+      <c r="I19">
+        <v>0.115930719684436</v>
+      </c>
+      <c r="J19">
+        <v>0.115930719684436</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>9.107756666666667</v>
+      </c>
+      <c r="N19">
+        <v>27.32327</v>
+      </c>
+      <c r="O19">
+        <v>0.1101838716472484</v>
+      </c>
+      <c r="P19">
+        <v>0.1101838716472484</v>
+      </c>
+      <c r="Q19">
+        <v>274.7042281009578</v>
+      </c>
+      <c r="R19">
+        <v>2472.33805290862</v>
+      </c>
+      <c r="S19">
+        <v>0.01277369553768302</v>
+      </c>
+      <c r="T19">
+        <v>0.01277369553768302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>30.16156866666667</v>
+      </c>
+      <c r="H20">
+        <v>90.484706</v>
+      </c>
+      <c r="I20">
+        <v>0.115930719684436</v>
+      </c>
+      <c r="J20">
+        <v>0.115930719684436</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>8.275423333333334</v>
+      </c>
+      <c r="N20">
+        <v>24.82627</v>
+      </c>
+      <c r="O20">
+        <v>0.1001144645995861</v>
+      </c>
+      <c r="P20">
+        <v>0.1001144645995861</v>
+      </c>
+      <c r="Q20">
+        <v>249.5997491140689</v>
+      </c>
+      <c r="R20">
+        <v>2246.39774202662</v>
+      </c>
+      <c r="S20">
+        <v>0.01160634193185201</v>
+      </c>
+      <c r="T20">
+        <v>0.011606341931852</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>30.16156866666667</v>
+      </c>
+      <c r="H21">
+        <v>90.484706</v>
+      </c>
+      <c r="I21">
+        <v>0.115930719684436</v>
+      </c>
+      <c r="J21">
+        <v>0.115930719684436</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>65.26224133333334</v>
+      </c>
+      <c r="N21">
+        <v>195.786724</v>
+      </c>
+      <c r="O21">
+        <v>0.7895299233016855</v>
+      </c>
+      <c r="P21">
+        <v>0.7895299233016855</v>
+      </c>
+      <c r="Q21">
+        <v>1968.411573315905</v>
+      </c>
+      <c r="R21">
+        <v>17715.70415984314</v>
+      </c>
+      <c r="S21">
+        <v>0.09153077222076193</v>
+      </c>
+      <c r="T21">
+        <v>0.09153077222076193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H22">
+        <v>315.250706</v>
+      </c>
+      <c r="I22">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J22">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.002486</v>
+      </c>
+      <c r="N22">
+        <v>0.007458</v>
+      </c>
+      <c r="O22">
+        <v>3.00751452789208E-05</v>
+      </c>
+      <c r="P22">
+        <v>3.00751452789208E-05</v>
+      </c>
+      <c r="Q22">
+        <v>0.2612377517053333</v>
+      </c>
+      <c r="R22">
+        <v>2.351139765348</v>
+      </c>
+      <c r="S22">
+        <v>1.214750688877776E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.214750688877776E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H23">
+        <v>315.250706</v>
+      </c>
+      <c r="I23">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J23">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.01171</v>
+      </c>
+      <c r="N23">
+        <v>0.03513</v>
+      </c>
+      <c r="O23">
+        <v>0.0001416653062011917</v>
+      </c>
+      <c r="P23">
+        <v>0.0001416653062011917</v>
+      </c>
+      <c r="Q23">
+        <v>1.230528589086667</v>
+      </c>
+      <c r="R23">
+        <v>11.07475730178</v>
+      </c>
+      <c r="S23">
+        <v>5.721935063056619E-05</v>
+      </c>
+      <c r="T23">
+        <v>5.72193506305662E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H24">
+        <v>315.250706</v>
+      </c>
+      <c r="I24">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J24">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>9.107756666666667</v>
+      </c>
+      <c r="N24">
+        <v>27.32327</v>
+      </c>
+      <c r="O24">
+        <v>0.1101838716472484</v>
+      </c>
+      <c r="P24">
+        <v>0.1101838716472484</v>
+      </c>
+      <c r="Q24">
+        <v>957.0755730809578</v>
+      </c>
+      <c r="R24">
+        <v>8613.680157728621</v>
+      </c>
+      <c r="S24">
+        <v>0.04450383622270511</v>
+      </c>
+      <c r="T24">
+        <v>0.04450383622270511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H25">
+        <v>315.250706</v>
+      </c>
+      <c r="I25">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J25">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>8.275423333333334</v>
+      </c>
+      <c r="N25">
+        <v>24.82627</v>
+      </c>
+      <c r="O25">
+        <v>0.1001144645995861</v>
+      </c>
+      <c r="P25">
+        <v>0.1001144645995861</v>
+      </c>
+      <c r="Q25">
+        <v>869.611016094069</v>
+      </c>
+      <c r="R25">
+        <v>7826.49914484662</v>
+      </c>
+      <c r="S25">
+        <v>0.04043675058295209</v>
+      </c>
+      <c r="T25">
+        <v>0.04043675058295208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H26">
+        <v>315.250706</v>
+      </c>
+      <c r="I26">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J26">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>65.26224133333334</v>
+      </c>
+      <c r="N26">
+        <v>195.786724</v>
+      </c>
+      <c r="O26">
+        <v>0.7895299233016855</v>
+      </c>
+      <c r="P26">
+        <v>0.7895299233016855</v>
+      </c>
+      <c r="Q26">
+        <v>6857.989218491905</v>
+      </c>
+      <c r="R26">
+        <v>61721.90296642714</v>
+      </c>
+      <c r="S26">
+        <v>0.3188952237223425</v>
+      </c>
+      <c r="T26">
+        <v>0.3188952237223425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H27">
+        <v>1.186187</v>
+      </c>
+      <c r="I27">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J27">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.002486</v>
+      </c>
+      <c r="N27">
+        <v>0.007458</v>
+      </c>
+      <c r="O27">
+        <v>3.00751452789208E-05</v>
+      </c>
+      <c r="P27">
+        <v>3.00751452789208E-05</v>
+      </c>
+      <c r="Q27">
+        <v>0.0009829536273333332</v>
+      </c>
+      <c r="R27">
+        <v>0.008846582645999999</v>
+      </c>
+      <c r="S27">
+        <v>4.570716093456939E-08</v>
+      </c>
+      <c r="T27">
+        <v>4.570716093456941E-08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H28">
+        <v>1.186187</v>
+      </c>
+      <c r="I28">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J28">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.01171</v>
+      </c>
+      <c r="N28">
+        <v>0.03513</v>
+      </c>
+      <c r="O28">
+        <v>0.0001416653062011917</v>
+      </c>
+      <c r="P28">
+        <v>0.0001416653062011917</v>
+      </c>
+      <c r="Q28">
+        <v>0.004630083256666666</v>
+      </c>
+      <c r="R28">
+        <v>0.04167074931</v>
+      </c>
+      <c r="S28">
+        <v>2.15298010677316E-07</v>
+      </c>
+      <c r="T28">
+        <v>2.152980106773161E-07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H29">
+        <v>1.186187</v>
+      </c>
+      <c r="I29">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J29">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>9.107756666666667</v>
+      </c>
+      <c r="N29">
+        <v>27.32327</v>
+      </c>
+      <c r="O29">
+        <v>0.1101838716472484</v>
+      </c>
+      <c r="P29">
+        <v>0.1101838716472484</v>
+      </c>
+      <c r="Q29">
+        <v>3.601167519054445</v>
+      </c>
+      <c r="R29">
+        <v>32.41050767149</v>
+      </c>
+      <c r="S29">
+        <v>0.0001674536201593848</v>
+      </c>
+      <c r="T29">
+        <v>0.0001674536201593849</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H30">
+        <v>1.186187</v>
+      </c>
+      <c r="I30">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J30">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>8.275423333333334</v>
+      </c>
+      <c r="N30">
+        <v>24.82627</v>
+      </c>
+      <c r="O30">
+        <v>0.1001144645995861</v>
+      </c>
+      <c r="P30">
+        <v>0.1001144645995861</v>
+      </c>
+      <c r="Q30">
+        <v>3.272066525832222</v>
+      </c>
+      <c r="R30">
+        <v>29.44859873249</v>
+      </c>
+      <c r="S30">
+        <v>0.0001521504851562178</v>
+      </c>
+      <c r="T30">
+        <v>0.0001521504851562178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.390443725935655</v>
-      </c>
-      <c r="H19">
-        <v>0.390443725935655</v>
-      </c>
-      <c r="I19">
-        <v>0.001636667875850162</v>
-      </c>
-      <c r="J19">
-        <v>0.001636667875850162</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>62.2359050511814</v>
-      </c>
-      <c r="N19">
-        <v>62.2359050511814</v>
-      </c>
-      <c r="O19">
-        <v>0.8026732882832482</v>
-      </c>
-      <c r="P19">
-        <v>0.8026732882832482</v>
-      </c>
-      <c r="Q19">
-        <v>24.29961865516092</v>
-      </c>
-      <c r="R19">
-        <v>24.29961865516092</v>
-      </c>
-      <c r="S19">
-        <v>0.001313709585736208</v>
-      </c>
-      <c r="T19">
-        <v>0.001313709585736208</v>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H31">
+        <v>1.186187</v>
+      </c>
+      <c r="I31">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J31">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>65.26224133333334</v>
+      </c>
+      <c r="N31">
+        <v>195.786724</v>
+      </c>
+      <c r="O31">
+        <v>0.7895299233016855</v>
+      </c>
+      <c r="P31">
+        <v>0.7895299233016855</v>
+      </c>
+      <c r="Q31">
+        <v>25.80440742015422</v>
+      </c>
+      <c r="R31">
+        <v>232.239666781388</v>
+      </c>
+      <c r="S31">
+        <v>0.001199900147857351</v>
+      </c>
+      <c r="T31">
+        <v>0.001199900147857351</v>
       </c>
     </row>
   </sheetData>
